--- a/stats.xlsx
+++ b/stats.xlsx
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3334</v>
+        <v>3003</v>
       </c>
       <c r="C2">
-        <v>5413</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1730</v>
+        <v>1637</v>
       </c>
       <c r="C3">
-        <v>2259</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="C4">
-        <v>2208</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>522</v>
+        <v>336</v>
       </c>
       <c r="C5">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.289</v>
+        <v>0.351</v>
       </c>
       <c r="C6">
-        <v>0.199</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2273196</v>
+        <v>2110705</v>
       </c>
       <c r="C7">
-        <v>3725198</v>
+        <v>3668754</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.319</v>
+        <v>0.327</v>
       </c>
       <c r="C8">
-        <v>0.545</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -14,15 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>AlexSean</t>
   </si>
   <si>
+    <t>TwoKBot1</t>
+  </si>
+  <si>
+    <t>TwoKBot2</t>
+  </si>
+  <si>
+    <t>TwoKBot3</t>
+  </si>
+  <si>
     <t>bot_1</t>
   </si>
   <si>
+    <t>bot_2</t>
+  </si>
+  <si>
+    <t>bot_3</t>
+  </si>
+  <si>
+    <t>bot_4</t>
+  </si>
+  <si>
+    <t>bot_5</t>
+  </si>
+  <si>
+    <t>bot_6</t>
+  </si>
+  <si>
     <t>Num Campaigns</t>
+  </si>
+  <si>
+    <t>Weight Positive</t>
+  </si>
+  <si>
+    <t>Weight Negative</t>
+  </si>
+  <si>
+    <t>% Profitable</t>
+  </si>
+  <si>
+    <t>% Zero</t>
+  </si>
+  <si>
+    <t>% Negative</t>
   </si>
   <si>
     <t>Num Profitable</t>
@@ -398,95 +437,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>3003</v>
+        <v>3755</v>
       </c>
       <c r="C2">
-        <v>5257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3586</v>
+      </c>
+      <c r="D2">
+        <v>3623</v>
+      </c>
+      <c r="E2">
+        <v>3571</v>
+      </c>
+      <c r="F2">
+        <v>6503</v>
+      </c>
+      <c r="G2">
+        <v>6559</v>
+      </c>
+      <c r="H2">
+        <v>6535</v>
+      </c>
+      <c r="I2">
+        <v>6523</v>
+      </c>
+      <c r="J2">
+        <v>6384</v>
+      </c>
+      <c r="K2">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1637</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>79</v>
+      </c>
+      <c r="E3">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>71</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>1030</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>336</v>
+        <v>50.8</v>
       </c>
       <c r="C5">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>50.2</v>
+      </c>
+      <c r="D5">
+        <v>51.8</v>
+      </c>
+      <c r="E5">
+        <v>51.1</v>
+      </c>
+      <c r="F5">
+        <v>43.2</v>
+      </c>
+      <c r="G5">
+        <v>43.8</v>
+      </c>
+      <c r="H5">
+        <v>43</v>
+      </c>
+      <c r="I5">
+        <v>42.7</v>
+      </c>
+      <c r="J5">
+        <v>43.2</v>
+      </c>
+      <c r="K5">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.351</v>
+        <v>20.1</v>
       </c>
       <c r="C6">
-        <v>0.193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>20.3</v>
+      </c>
+      <c r="D6">
+        <v>20.2</v>
+      </c>
+      <c r="E6">
+        <v>19.6</v>
+      </c>
+      <c r="F6">
+        <v>41.09999999999999</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>40.6</v>
+      </c>
+      <c r="I6">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="K6">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>2110705</v>
+        <v>29.1</v>
       </c>
       <c r="C7">
-        <v>3668754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>29.5</v>
+      </c>
+      <c r="D7">
+        <v>27.9</v>
+      </c>
+      <c r="E7">
+        <v>29.4</v>
+      </c>
+      <c r="F7">
+        <v>15.7</v>
+      </c>
+      <c r="G7">
+        <v>16.3</v>
+      </c>
+      <c r="H7">
+        <v>16.3</v>
+      </c>
+      <c r="I7">
+        <v>16.3</v>
+      </c>
+      <c r="J7">
+        <v>16.4</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.327</v>
+        <v>1909</v>
       </c>
       <c r="C8">
-        <v>0.5570000000000001</v>
+        <v>1799</v>
+      </c>
+      <c r="D8">
+        <v>1878</v>
+      </c>
+      <c r="E8">
+        <v>1823</v>
+      </c>
+      <c r="F8">
+        <v>2807</v>
+      </c>
+      <c r="G8">
+        <v>2870</v>
+      </c>
+      <c r="H8">
+        <v>2812</v>
+      </c>
+      <c r="I8">
+        <v>2787</v>
+      </c>
+      <c r="J8">
+        <v>2757</v>
+      </c>
+      <c r="K8">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>755</v>
+      </c>
+      <c r="C9">
+        <v>729</v>
+      </c>
+      <c r="D9">
+        <v>733</v>
+      </c>
+      <c r="E9">
+        <v>699</v>
+      </c>
+      <c r="F9">
+        <v>2673</v>
+      </c>
+      <c r="G9">
+        <v>2623</v>
+      </c>
+      <c r="H9">
+        <v>2655</v>
+      </c>
+      <c r="I9">
+        <v>2674</v>
+      </c>
+      <c r="J9">
+        <v>2582</v>
+      </c>
+      <c r="K9">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1091</v>
+      </c>
+      <c r="C10">
+        <v>1058</v>
+      </c>
+      <c r="D10">
+        <v>1012</v>
+      </c>
+      <c r="E10">
+        <v>1049</v>
+      </c>
+      <c r="F10">
+        <v>1023</v>
+      </c>
+      <c r="G10">
+        <v>1066</v>
+      </c>
+      <c r="H10">
+        <v>1068</v>
+      </c>
+      <c r="I10">
+        <v>1062</v>
+      </c>
+      <c r="J10">
+        <v>1045</v>
+      </c>
+      <c r="K10">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.404</v>
+      </c>
+      <c r="C11">
+        <v>0.401</v>
+      </c>
+      <c r="D11">
+        <v>0.419</v>
+      </c>
+      <c r="E11">
+        <v>0.41</v>
+      </c>
+      <c r="F11">
+        <v>0.164</v>
+      </c>
+      <c r="G11">
+        <v>0.172</v>
+      </c>
+      <c r="H11">
+        <v>0.168</v>
+      </c>
+      <c r="I11">
+        <v>0.159</v>
+      </c>
+      <c r="J11">
+        <v>0.165</v>
+      </c>
+      <c r="K11">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3114391</v>
+      </c>
+      <c r="C12">
+        <v>2798021</v>
+      </c>
+      <c r="D12">
+        <v>2923792</v>
+      </c>
+      <c r="E12">
+        <v>2871665</v>
+      </c>
+      <c r="F12">
+        <v>4202019</v>
+      </c>
+      <c r="G12">
+        <v>4299834</v>
+      </c>
+      <c r="H12">
+        <v>4296377</v>
+      </c>
+      <c r="I12">
+        <v>4213538</v>
+      </c>
+      <c r="J12">
+        <v>4175591</v>
+      </c>
+      <c r="K12">
+        <v>4168227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.518</v>
+      </c>
+      <c r="C13">
+        <v>0.523</v>
+      </c>
+      <c r="D13">
+        <v>0.521</v>
+      </c>
+      <c r="E13">
+        <v>0.522</v>
+      </c>
+      <c r="F13">
+        <v>0.632</v>
+      </c>
+      <c r="G13">
+        <v>0.613</v>
+      </c>
+      <c r="H13">
+        <v>0.626</v>
+      </c>
+      <c r="I13">
+        <v>0.625</v>
+      </c>
+      <c r="J13">
+        <v>0.625</v>
+      </c>
+      <c r="K13">
+        <v>0.627</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -25,9 +25,6 @@
     <t>TwoKBot2</t>
   </si>
   <si>
-    <t>TwoKBot3</t>
-  </si>
-  <si>
     <t>bot_1</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>bot_6</t>
+  </si>
+  <si>
+    <t>bot_7</t>
   </si>
   <si>
     <t>Num Campaigns</t>
@@ -480,34 +480,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3755</v>
+        <v>3404</v>
       </c>
       <c r="C2">
-        <v>3586</v>
+        <v>3483</v>
       </c>
       <c r="D2">
-        <v>3623</v>
+        <v>3519</v>
       </c>
       <c r="E2">
-        <v>3571</v>
+        <v>6090</v>
       </c>
       <c r="F2">
-        <v>6503</v>
+        <v>5978</v>
       </c>
       <c r="G2">
-        <v>6559</v>
+        <v>6049</v>
       </c>
       <c r="H2">
-        <v>6535</v>
+        <v>6101</v>
       </c>
       <c r="I2">
-        <v>6523</v>
+        <v>6016</v>
       </c>
       <c r="J2">
-        <v>6384</v>
+        <v>6095</v>
       </c>
       <c r="K2">
-        <v>6423</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,34 +515,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>73</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,34 +550,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>27</v>
       </c>
       <c r="H4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,34 +585,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>50.8</v>
+        <v>51.5</v>
       </c>
       <c r="C5">
-        <v>50.2</v>
+        <v>52.7</v>
       </c>
       <c r="D5">
-        <v>51.8</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="E5">
-        <v>51.1</v>
+        <v>43.8</v>
       </c>
       <c r="F5">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="G5">
-        <v>43.8</v>
+        <v>42.2</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="I5">
-        <v>42.7</v>
+        <v>44.1</v>
       </c>
       <c r="J5">
-        <v>43.2</v>
+        <v>42.6</v>
       </c>
       <c r="K5">
-        <v>43.1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,34 +620,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20.1</v>
+        <v>24.1</v>
       </c>
       <c r="C6">
-        <v>20.3</v>
+        <v>23.4</v>
       </c>
       <c r="D6">
-        <v>20.2</v>
+        <v>22.6</v>
       </c>
       <c r="E6">
-        <v>19.6</v>
+        <v>39.7</v>
       </c>
       <c r="F6">
-        <v>41.09999999999999</v>
+        <v>39.8</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>41.4</v>
       </c>
       <c r="H6">
-        <v>40.6</v>
+        <v>40.40000000000001</v>
       </c>
       <c r="I6">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="J6">
         <v>40.40000000000001</v>
       </c>
       <c r="K6">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +655,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>29.1</v>
+        <v>24.4</v>
       </c>
       <c r="C7">
-        <v>29.5</v>
+        <v>23.9</v>
       </c>
       <c r="D7">
-        <v>27.9</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>29.4</v>
+        <v>16.5</v>
       </c>
       <c r="F7">
-        <v>15.7</v>
+        <v>17.3</v>
       </c>
       <c r="G7">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="H7">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="I7">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="J7">
-        <v>16.4</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,34 +690,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1909</v>
+        <v>1752</v>
       </c>
       <c r="C8">
-        <v>1799</v>
+        <v>1836</v>
       </c>
       <c r="D8">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="E8">
-        <v>1823</v>
+        <v>2667</v>
       </c>
       <c r="F8">
-        <v>2807</v>
+        <v>2561</v>
       </c>
       <c r="G8">
-        <v>2870</v>
+        <v>2554</v>
       </c>
       <c r="H8">
-        <v>2812</v>
+        <v>2632</v>
       </c>
       <c r="I8">
-        <v>2787</v>
+        <v>2652</v>
       </c>
       <c r="J8">
-        <v>2757</v>
+        <v>2597</v>
       </c>
       <c r="K8">
-        <v>2767</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,34 +725,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>755</v>
+        <v>822</v>
       </c>
       <c r="C9">
-        <v>729</v>
+        <v>816</v>
       </c>
       <c r="D9">
-        <v>733</v>
+        <v>794</v>
       </c>
       <c r="E9">
-        <v>699</v>
+        <v>2416</v>
       </c>
       <c r="F9">
-        <v>2673</v>
+        <v>2381</v>
       </c>
       <c r="G9">
-        <v>2623</v>
+        <v>2502</v>
       </c>
       <c r="H9">
-        <v>2655</v>
+        <v>2463</v>
       </c>
       <c r="I9">
-        <v>2674</v>
+        <v>2364</v>
       </c>
       <c r="J9">
-        <v>2582</v>
+        <v>2461</v>
       </c>
       <c r="K9">
-        <v>2628</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1091</v>
+        <v>830</v>
       </c>
       <c r="C10">
-        <v>1058</v>
+        <v>831</v>
       </c>
       <c r="D10">
-        <v>1012</v>
+        <v>846</v>
       </c>
       <c r="E10">
-        <v>1049</v>
+        <v>1007</v>
       </c>
       <c r="F10">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="G10">
-        <v>1066</v>
+        <v>993</v>
       </c>
       <c r="H10">
-        <v>1068</v>
+        <v>1006</v>
       </c>
       <c r="I10">
-        <v>1062</v>
+        <v>1000</v>
       </c>
       <c r="J10">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="K10">
-        <v>1028</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,34 +795,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.404</v>
+        <v>0.375</v>
       </c>
       <c r="C11">
-        <v>0.401</v>
+        <v>0.405</v>
       </c>
       <c r="D11">
-        <v>0.419</v>
+        <v>0.409</v>
       </c>
       <c r="E11">
-        <v>0.41</v>
+        <v>0.186</v>
       </c>
       <c r="F11">
-        <v>0.164</v>
+        <v>0.174</v>
       </c>
       <c r="G11">
-        <v>0.172</v>
+        <v>0.168</v>
       </c>
       <c r="H11">
-        <v>0.168</v>
+        <v>0.17</v>
       </c>
       <c r="I11">
-        <v>0.159</v>
+        <v>0.18</v>
       </c>
       <c r="J11">
-        <v>0.165</v>
+        <v>0.176</v>
       </c>
       <c r="K11">
-        <v>0.157</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,34 +830,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3114391</v>
+        <v>2620080</v>
       </c>
       <c r="C12">
-        <v>2798021</v>
+        <v>2714153</v>
       </c>
       <c r="D12">
-        <v>2923792</v>
+        <v>2815406</v>
       </c>
       <c r="E12">
-        <v>2871665</v>
+        <v>4249405</v>
       </c>
       <c r="F12">
-        <v>4202019</v>
+        <v>3991155</v>
       </c>
       <c r="G12">
-        <v>4299834</v>
+        <v>3995763</v>
       </c>
       <c r="H12">
-        <v>4296377</v>
+        <v>4057277</v>
       </c>
       <c r="I12">
-        <v>4213538</v>
+        <v>4188152</v>
       </c>
       <c r="J12">
-        <v>4175591</v>
+        <v>4101431</v>
       </c>
       <c r="K12">
-        <v>4168227</v>
+        <v>4077198</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,34 +865,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.518</v>
+        <v>0.463</v>
       </c>
       <c r="C13">
-        <v>0.523</v>
+        <v>0.457</v>
       </c>
       <c r="D13">
-        <v>0.521</v>
+        <v>0.468</v>
       </c>
       <c r="E13">
-        <v>0.522</v>
+        <v>0.589</v>
       </c>
       <c r="F13">
-        <v>0.632</v>
+        <v>0.597</v>
       </c>
       <c r="G13">
-        <v>0.613</v>
+        <v>0.599</v>
       </c>
       <c r="H13">
-        <v>0.626</v>
+        <v>0.593</v>
       </c>
       <c r="I13">
-        <v>0.625</v>
+        <v>0.601</v>
       </c>
       <c r="J13">
-        <v>0.625</v>
+        <v>0.601</v>
       </c>
       <c r="K13">
-        <v>0.627</v>
+        <v>0.591</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -480,34 +480,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3404</v>
+        <v>3358</v>
       </c>
       <c r="C2">
-        <v>3483</v>
+        <v>3514</v>
       </c>
       <c r="D2">
-        <v>3519</v>
+        <v>3449</v>
       </c>
       <c r="E2">
-        <v>6090</v>
+        <v>6306</v>
       </c>
       <c r="F2">
-        <v>5978</v>
+        <v>6027</v>
       </c>
       <c r="G2">
-        <v>6049</v>
+        <v>5976</v>
       </c>
       <c r="H2">
-        <v>6101</v>
+        <v>6145</v>
       </c>
       <c r="I2">
-        <v>6016</v>
+        <v>6166</v>
       </c>
       <c r="J2">
-        <v>6095</v>
+        <v>6027</v>
       </c>
       <c r="K2">
-        <v>6032</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,34 +515,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>84</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3">
+        <v>74</v>
+      </c>
+      <c r="G3">
+        <v>74</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>74</v>
+      </c>
+      <c r="K3">
         <v>73</v>
-      </c>
-      <c r="G3">
-        <v>73</v>
-      </c>
-      <c r="H3">
-        <v>74</v>
-      </c>
-      <c r="I3">
-        <v>74</v>
-      </c>
-      <c r="J3">
-        <v>73</v>
-      </c>
-      <c r="K3">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,34 +550,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
         <v>27</v>
-      </c>
-      <c r="G4">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-      <c r="J4">
-        <v>27</v>
-      </c>
-      <c r="K4">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,34 +585,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>51.5</v>
+        <v>33.7</v>
       </c>
       <c r="C5">
-        <v>52.7</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="D5">
-        <v>53.40000000000001</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="E5">
-        <v>43.8</v>
+        <v>44.9</v>
       </c>
       <c r="F5">
-        <v>42.8</v>
+        <v>42.5</v>
       </c>
       <c r="G5">
-        <v>42.2</v>
+        <v>43.2</v>
       </c>
       <c r="H5">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="I5">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="J5">
-        <v>42.6</v>
+        <v>43.3</v>
       </c>
       <c r="K5">
-        <v>44</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,34 +620,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="C6">
-        <v>23.4</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>39.7</v>
+        <v>37.5</v>
       </c>
       <c r="F6">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>41.4</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="H6">
-        <v>40.40000000000001</v>
+        <v>40.2</v>
       </c>
       <c r="I6">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="J6">
         <v>40.40000000000001</v>
       </c>
       <c r="K6">
-        <v>39.3</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +655,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>24.4</v>
+        <v>43</v>
       </c>
       <c r="C7">
-        <v>23.9</v>
+        <v>24.6</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25.6</v>
       </c>
       <c r="E7">
-        <v>16.5</v>
+        <v>17.6</v>
       </c>
       <c r="F7">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="G7">
-        <v>16.4</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="I7">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="K7">
-        <v>16.7</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,34 +690,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1752</v>
+        <v>1131</v>
       </c>
       <c r="C8">
-        <v>1836</v>
+        <v>1876</v>
       </c>
       <c r="D8">
-        <v>1879</v>
+        <v>1807</v>
       </c>
       <c r="E8">
-        <v>2667</v>
+        <v>2833</v>
       </c>
       <c r="F8">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="G8">
-        <v>2554</v>
+        <v>2579</v>
       </c>
       <c r="H8">
-        <v>2632</v>
+        <v>2625</v>
       </c>
       <c r="I8">
-        <v>2652</v>
+        <v>2730</v>
       </c>
       <c r="J8">
-        <v>2597</v>
+        <v>2610</v>
       </c>
       <c r="K8">
-        <v>2652</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,34 +725,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>822</v>
+        <v>782</v>
       </c>
       <c r="C9">
-        <v>816</v>
+        <v>773</v>
       </c>
       <c r="D9">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="E9">
-        <v>2416</v>
+        <v>2365</v>
       </c>
       <c r="F9">
-        <v>2381</v>
+        <v>2413</v>
       </c>
       <c r="G9">
-        <v>2502</v>
+        <v>2384</v>
       </c>
       <c r="H9">
-        <v>2463</v>
+        <v>2468</v>
       </c>
       <c r="I9">
-        <v>2364</v>
+        <v>2437</v>
       </c>
       <c r="J9">
-        <v>2461</v>
+        <v>2433</v>
       </c>
       <c r="K9">
-        <v>2371</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>1445</v>
       </c>
       <c r="C10">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="D10">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="E10">
-        <v>1007</v>
+        <v>1108</v>
       </c>
       <c r="F10">
-        <v>1036</v>
+        <v>1050</v>
       </c>
       <c r="G10">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="H10">
-        <v>1006</v>
+        <v>1052</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J10">
-        <v>1037</v>
+        <v>984</v>
       </c>
       <c r="K10">
-        <v>1009</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,34 +795,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.375</v>
+        <v>0.258</v>
       </c>
       <c r="C11">
-        <v>0.405</v>
+        <v>0.424</v>
       </c>
       <c r="D11">
-        <v>0.409</v>
+        <v>0.417</v>
       </c>
       <c r="E11">
-        <v>0.186</v>
+        <v>0.196</v>
       </c>
       <c r="F11">
         <v>0.174</v>
       </c>
       <c r="G11">
-        <v>0.168</v>
+        <v>0.177</v>
       </c>
       <c r="H11">
-        <v>0.17</v>
+        <v>0.177</v>
       </c>
       <c r="I11">
-        <v>0.18</v>
+        <v>0.178</v>
       </c>
       <c r="J11">
-        <v>0.176</v>
+        <v>0.172</v>
       </c>
       <c r="K11">
-        <v>0.186</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,34 +830,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2620080</v>
+        <v>2190835</v>
       </c>
       <c r="C12">
-        <v>2714153</v>
+        <v>2844655</v>
       </c>
       <c r="D12">
-        <v>2815406</v>
+        <v>2789008</v>
       </c>
       <c r="E12">
-        <v>4249405</v>
+        <v>4383068</v>
       </c>
       <c r="F12">
-        <v>3991155</v>
+        <v>3993486</v>
       </c>
       <c r="G12">
-        <v>3995763</v>
+        <v>4031772</v>
       </c>
       <c r="H12">
-        <v>4057277</v>
+        <v>4177930</v>
       </c>
       <c r="I12">
-        <v>4188152</v>
+        <v>4143226</v>
       </c>
       <c r="J12">
-        <v>4101431</v>
+        <v>3958727</v>
       </c>
       <c r="K12">
-        <v>4077198</v>
+        <v>4273533</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,34 +865,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.463</v>
+        <v>0.846</v>
       </c>
       <c r="C13">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="D13">
-        <v>0.468</v>
+        <v>0.456</v>
       </c>
       <c r="E13">
-        <v>0.589</v>
+        <v>0.609</v>
       </c>
       <c r="F13">
-        <v>0.597</v>
+        <v>0.591</v>
       </c>
       <c r="G13">
+        <v>0.593</v>
+      </c>
+      <c r="H13">
         <v>0.599</v>
       </c>
-      <c r="H13">
-        <v>0.593</v>
-      </c>
       <c r="I13">
-        <v>0.601</v>
+        <v>0.596</v>
       </c>
       <c r="J13">
-        <v>0.601</v>
+        <v>0.603</v>
       </c>
       <c r="K13">
-        <v>0.591</v>
+        <v>0.605</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -480,34 +480,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3358</v>
+        <v>3273</v>
       </c>
       <c r="C2">
-        <v>3514</v>
+        <v>3454</v>
       </c>
       <c r="D2">
-        <v>3449</v>
+        <v>3597</v>
       </c>
       <c r="E2">
-        <v>6306</v>
+        <v>6172</v>
       </c>
       <c r="F2">
-        <v>6027</v>
+        <v>5972</v>
       </c>
       <c r="G2">
-        <v>5976</v>
+        <v>6159</v>
       </c>
       <c r="H2">
-        <v>6145</v>
+        <v>6149</v>
       </c>
       <c r="I2">
-        <v>6166</v>
+        <v>6128</v>
       </c>
       <c r="J2">
-        <v>6027</v>
+        <v>6004</v>
       </c>
       <c r="K2">
-        <v>6119</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>84</v>
@@ -524,25 +524,25 @@
         <v>84</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3">
         <v>74</v>
       </c>
       <c r="K3">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -559,25 +559,25 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,34 +585,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>33.7</v>
+        <v>52.8</v>
       </c>
       <c r="C5">
-        <v>53.40000000000001</v>
+        <v>51.4</v>
       </c>
       <c r="D5">
-        <v>52.40000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="E5">
-        <v>44.9</v>
+        <v>43.4</v>
       </c>
       <c r="F5">
-        <v>42.5</v>
+        <v>43.2</v>
       </c>
       <c r="G5">
-        <v>43.2</v>
+        <v>43.8</v>
       </c>
       <c r="H5">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="I5">
-        <v>44.3</v>
+        <v>42.6</v>
       </c>
       <c r="J5">
         <v>43.3</v>
       </c>
       <c r="K5">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,34 +620,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>24.7</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>22.9</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>39.4</v>
       </c>
       <c r="G6">
-        <v>39.90000000000001</v>
+        <v>40.3</v>
       </c>
       <c r="H6">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="I6">
-        <v>39.5</v>
+        <v>40.7</v>
       </c>
       <c r="J6">
-        <v>40.40000000000001</v>
+        <v>40.3</v>
       </c>
       <c r="K6">
-        <v>38.4</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +655,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>23.1</v>
       </c>
       <c r="C7">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="D7">
-        <v>25.6</v>
+        <v>24.9</v>
       </c>
       <c r="E7">
-        <v>17.6</v>
+        <v>17.1</v>
       </c>
       <c r="F7">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="H7">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="I7">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="J7">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="K7">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,34 +690,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1131</v>
+        <v>1727</v>
       </c>
       <c r="C8">
-        <v>1876</v>
+        <v>1777</v>
       </c>
       <c r="D8">
-        <v>1807</v>
+        <v>1878</v>
       </c>
       <c r="E8">
-        <v>2833</v>
+        <v>2681</v>
       </c>
       <c r="F8">
-        <v>2564</v>
+        <v>2578</v>
       </c>
       <c r="G8">
-        <v>2579</v>
+        <v>2700</v>
       </c>
       <c r="H8">
-        <v>2625</v>
+        <v>2690</v>
       </c>
       <c r="I8">
-        <v>2730</v>
+        <v>2610</v>
       </c>
       <c r="J8">
+        <v>2597</v>
+      </c>
+      <c r="K8">
         <v>2610</v>
-      </c>
-      <c r="K8">
-        <v>2647</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,34 +725,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="C9">
-        <v>773</v>
+        <v>854</v>
       </c>
       <c r="D9">
-        <v>759</v>
+        <v>823</v>
       </c>
       <c r="E9">
-        <v>2365</v>
+        <v>2438</v>
       </c>
       <c r="F9">
-        <v>2413</v>
+        <v>2350</v>
       </c>
       <c r="G9">
-        <v>2384</v>
+        <v>2482</v>
       </c>
       <c r="H9">
-        <v>2468</v>
+        <v>2424</v>
       </c>
       <c r="I9">
-        <v>2437</v>
+        <v>2493</v>
       </c>
       <c r="J9">
-        <v>2433</v>
+        <v>2419</v>
       </c>
       <c r="K9">
-        <v>2351</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1445</v>
+        <v>757</v>
       </c>
       <c r="C10">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="D10">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="E10">
-        <v>1108</v>
+        <v>1053</v>
       </c>
       <c r="F10">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="G10">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="H10">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="I10">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="J10">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="K10">
-        <v>1121</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,34 +795,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.258</v>
+        <v>0.468</v>
       </c>
       <c r="C11">
-        <v>0.424</v>
+        <v>0.369</v>
       </c>
       <c r="D11">
-        <v>0.417</v>
+        <v>0.402</v>
       </c>
       <c r="E11">
-        <v>0.196</v>
+        <v>0.183</v>
       </c>
       <c r="F11">
+        <v>0.176</v>
+      </c>
+      <c r="G11">
+        <v>0.186</v>
+      </c>
+      <c r="H11">
+        <v>0.183</v>
+      </c>
+      <c r="I11">
+        <v>0.175</v>
+      </c>
+      <c r="J11">
+        <v>0.166</v>
+      </c>
+      <c r="K11">
         <v>0.174</v>
-      </c>
-      <c r="G11">
-        <v>0.177</v>
-      </c>
-      <c r="H11">
-        <v>0.177</v>
-      </c>
-      <c r="I11">
-        <v>0.178</v>
-      </c>
-      <c r="J11">
-        <v>0.172</v>
-      </c>
-      <c r="K11">
-        <v>0.183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,34 +830,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2190835</v>
+        <v>2548086</v>
       </c>
       <c r="C12">
-        <v>2844655</v>
+        <v>2637391</v>
       </c>
       <c r="D12">
-        <v>2789008</v>
+        <v>2871303</v>
       </c>
       <c r="E12">
-        <v>4383068</v>
+        <v>4228837</v>
       </c>
       <c r="F12">
-        <v>3993486</v>
+        <v>4052803</v>
       </c>
       <c r="G12">
-        <v>4031772</v>
+        <v>4211187</v>
       </c>
       <c r="H12">
-        <v>4177930</v>
+        <v>4101446</v>
       </c>
       <c r="I12">
-        <v>4143226</v>
+        <v>4079332</v>
       </c>
       <c r="J12">
-        <v>3958727</v>
+        <v>3933410</v>
       </c>
       <c r="K12">
-        <v>4273533</v>
+        <v>4096544</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,34 +865,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.846</v>
+        <v>0.455</v>
       </c>
       <c r="C13">
-        <v>0.454</v>
+        <v>0.463</v>
       </c>
       <c r="D13">
-        <v>0.456</v>
+        <v>0.46</v>
       </c>
       <c r="E13">
-        <v>0.609</v>
+        <v>0.608</v>
       </c>
       <c r="F13">
-        <v>0.591</v>
+        <v>0.603</v>
       </c>
       <c r="G13">
-        <v>0.593</v>
+        <v>0.589</v>
       </c>
       <c r="H13">
-        <v>0.599</v>
+        <v>0.605</v>
       </c>
       <c r="I13">
-        <v>0.596</v>
+        <v>0.606</v>
       </c>
       <c r="J13">
-        <v>0.603</v>
+        <v>0.598</v>
       </c>
       <c r="K13">
-        <v>0.605</v>
+        <v>0.592</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -19,12 +19,6 @@
     <t>AlexSean</t>
   </si>
   <si>
-    <t>TwoKBot1</t>
-  </si>
-  <si>
-    <t>TwoKBot2</t>
-  </si>
-  <si>
     <t>bot_1</t>
   </si>
   <si>
@@ -44,6 +38,12 @@
   </si>
   <si>
     <t>bot_7</t>
+  </si>
+  <si>
+    <t>bot_8</t>
+  </si>
+  <si>
+    <t>bot_9</t>
   </si>
   <si>
     <t>Num Campaigns</t>
@@ -480,34 +480,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3404</v>
+        <v>5600</v>
       </c>
       <c r="C2">
-        <v>3483</v>
+        <v>5578</v>
       </c>
       <c r="D2">
-        <v>3519</v>
+        <v>5571</v>
       </c>
       <c r="E2">
-        <v>6090</v>
+        <v>5568</v>
       </c>
       <c r="F2">
-        <v>5978</v>
+        <v>5509</v>
       </c>
       <c r="G2">
-        <v>6049</v>
+        <v>5653</v>
       </c>
       <c r="H2">
-        <v>6101</v>
+        <v>5776</v>
       </c>
       <c r="I2">
-        <v>6016</v>
+        <v>5493</v>
       </c>
       <c r="J2">
-        <v>6095</v>
+        <v>5462</v>
       </c>
       <c r="K2">
-        <v>6032</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,34 +515,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,34 +550,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,34 +585,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>51.5</v>
+        <v>34.7</v>
       </c>
       <c r="C5">
-        <v>52.7</v>
+        <v>35.5</v>
       </c>
       <c r="D5">
-        <v>53.40000000000001</v>
+        <v>34.4</v>
       </c>
       <c r="E5">
-        <v>43.8</v>
+        <v>35.4</v>
       </c>
       <c r="F5">
-        <v>42.8</v>
+        <v>34.7</v>
       </c>
       <c r="G5">
-        <v>42.2</v>
+        <v>35.6</v>
       </c>
       <c r="H5">
-        <v>43.1</v>
+        <v>35.7</v>
       </c>
       <c r="I5">
-        <v>44.1</v>
+        <v>34.2</v>
       </c>
       <c r="J5">
-        <v>42.6</v>
+        <v>34.5</v>
       </c>
       <c r="K5">
-        <v>44</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,34 +620,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>24.1</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="C6">
-        <v>23.4</v>
+        <v>33.4</v>
       </c>
       <c r="D6">
-        <v>22.6</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>39.7</v>
+        <v>34.1</v>
       </c>
       <c r="F6">
-        <v>39.8</v>
+        <v>34.2</v>
       </c>
       <c r="G6">
-        <v>41.4</v>
+        <v>33.6</v>
       </c>
       <c r="H6">
-        <v>40.40000000000001</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="I6">
-        <v>39.3</v>
+        <v>34.7</v>
       </c>
       <c r="J6">
-        <v>40.40000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="K6">
-        <v>39.3</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +655,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>24.4</v>
+        <v>31.4</v>
       </c>
       <c r="C7">
-        <v>23.9</v>
+        <v>31.1</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>31.6</v>
       </c>
       <c r="E7">
-        <v>16.5</v>
+        <v>30.5</v>
       </c>
       <c r="F7">
-        <v>17.3</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>16.4</v>
+        <v>30.8</v>
       </c>
       <c r="H7">
-        <v>16.5</v>
+        <v>30.5</v>
       </c>
       <c r="I7">
-        <v>16.6</v>
+        <v>31.1</v>
       </c>
       <c r="J7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>16.7</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,34 +690,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1752</v>
+        <v>1944</v>
       </c>
       <c r="C8">
-        <v>1836</v>
+        <v>1980</v>
       </c>
       <c r="D8">
+        <v>1915</v>
+      </c>
+      <c r="E8">
+        <v>1970</v>
+      </c>
+      <c r="F8">
+        <v>1914</v>
+      </c>
+      <c r="G8">
+        <v>2012</v>
+      </c>
+      <c r="H8">
+        <v>2060</v>
+      </c>
+      <c r="I8">
         <v>1879</v>
       </c>
-      <c r="E8">
-        <v>2667</v>
-      </c>
-      <c r="F8">
-        <v>2561</v>
-      </c>
-      <c r="G8">
-        <v>2554</v>
-      </c>
-      <c r="H8">
-        <v>2632</v>
-      </c>
-      <c r="I8">
-        <v>2652</v>
-      </c>
       <c r="J8">
-        <v>2597</v>
+        <v>1882</v>
       </c>
       <c r="K8">
-        <v>2652</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,34 +725,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>822</v>
+        <v>1897</v>
       </c>
       <c r="C9">
-        <v>816</v>
+        <v>1862</v>
       </c>
       <c r="D9">
-        <v>794</v>
+        <v>1896</v>
       </c>
       <c r="E9">
-        <v>2416</v>
+        <v>1899</v>
       </c>
       <c r="F9">
-        <v>2381</v>
+        <v>1885</v>
       </c>
       <c r="G9">
-        <v>2502</v>
+        <v>1901</v>
       </c>
       <c r="H9">
-        <v>2463</v>
+        <v>1956</v>
       </c>
       <c r="I9">
-        <v>2364</v>
+        <v>1908</v>
       </c>
       <c r="J9">
-        <v>2461</v>
+        <v>1834</v>
       </c>
       <c r="K9">
-        <v>2371</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>1759</v>
       </c>
       <c r="C10">
-        <v>831</v>
+        <v>1736</v>
       </c>
       <c r="D10">
-        <v>846</v>
+        <v>1760</v>
       </c>
       <c r="E10">
-        <v>1007</v>
+        <v>1699</v>
       </c>
       <c r="F10">
-        <v>1036</v>
+        <v>1710</v>
       </c>
       <c r="G10">
-        <v>993</v>
+        <v>1740</v>
       </c>
       <c r="H10">
-        <v>1006</v>
+        <v>1760</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>1706</v>
       </c>
       <c r="J10">
-        <v>1037</v>
+        <v>1746</v>
       </c>
       <c r="K10">
-        <v>1009</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,34 +795,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.375</v>
+        <v>0.213</v>
       </c>
       <c r="C11">
-        <v>0.405</v>
+        <v>0.208</v>
       </c>
       <c r="D11">
-        <v>0.409</v>
+        <v>0.202</v>
       </c>
       <c r="E11">
-        <v>0.186</v>
+        <v>0.219</v>
       </c>
       <c r="F11">
-        <v>0.174</v>
+        <v>0.209</v>
       </c>
       <c r="G11">
-        <v>0.168</v>
+        <v>0.209</v>
       </c>
       <c r="H11">
-        <v>0.17</v>
+        <v>0.208</v>
       </c>
       <c r="I11">
-        <v>0.18</v>
+        <v>0.198</v>
       </c>
       <c r="J11">
-        <v>0.176</v>
+        <v>0.219</v>
       </c>
       <c r="K11">
-        <v>0.186</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,34 +830,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2620080</v>
+        <v>3848457</v>
       </c>
       <c r="C12">
-        <v>2714153</v>
+        <v>3924421</v>
       </c>
       <c r="D12">
-        <v>2815406</v>
+        <v>3872747</v>
       </c>
       <c r="E12">
-        <v>4249405</v>
+        <v>3886047</v>
       </c>
       <c r="F12">
-        <v>3991155</v>
+        <v>3807132</v>
       </c>
       <c r="G12">
-        <v>3995763</v>
+        <v>3941434</v>
       </c>
       <c r="H12">
-        <v>4057277</v>
+        <v>3998480</v>
       </c>
       <c r="I12">
-        <v>4188152</v>
+        <v>3760092</v>
       </c>
       <c r="J12">
-        <v>4101431</v>
+        <v>3780452</v>
       </c>
       <c r="K12">
-        <v>4077198</v>
+        <v>3827636</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,34 +865,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.463</v>
+        <v>0.629</v>
       </c>
       <c r="C13">
-        <v>0.457</v>
+        <v>0.619</v>
       </c>
       <c r="D13">
-        <v>0.468</v>
+        <v>0.622</v>
       </c>
       <c r="E13">
-        <v>0.589</v>
+        <v>0.615</v>
       </c>
       <c r="F13">
-        <v>0.597</v>
+        <v>0.632</v>
       </c>
       <c r="G13">
-        <v>0.599</v>
+        <v>0.617</v>
       </c>
       <c r="H13">
-        <v>0.593</v>
+        <v>0.621</v>
       </c>
       <c r="I13">
-        <v>0.601</v>
+        <v>0.631</v>
       </c>
       <c r="J13">
-        <v>0.601</v>
+        <v>0.635</v>
       </c>
       <c r="K13">
-        <v>0.591</v>
+        <v>0.629</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -480,34 +480,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5600</v>
+        <v>5974</v>
       </c>
       <c r="C2">
-        <v>5578</v>
+        <v>5081</v>
       </c>
       <c r="D2">
-        <v>5571</v>
+        <v>5199</v>
       </c>
       <c r="E2">
-        <v>5568</v>
+        <v>4993</v>
       </c>
       <c r="F2">
-        <v>5509</v>
+        <v>4986</v>
       </c>
       <c r="G2">
-        <v>5653</v>
+        <v>5289</v>
       </c>
       <c r="H2">
-        <v>5776</v>
+        <v>5212</v>
       </c>
       <c r="I2">
-        <v>5493</v>
+        <v>5066</v>
       </c>
       <c r="J2">
-        <v>5462</v>
+        <v>5134</v>
       </c>
       <c r="K2">
-        <v>5436</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,34 +515,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K3">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,34 +550,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J4">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,34 +585,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>34.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C5">
-        <v>35.5</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="D5">
-        <v>34.4</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>35.4</v>
+        <v>40.6</v>
       </c>
       <c r="F5">
-        <v>34.7</v>
+        <v>41.9</v>
       </c>
       <c r="G5">
-        <v>35.6</v>
+        <v>41.2</v>
       </c>
       <c r="H5">
-        <v>35.7</v>
+        <v>41.7</v>
       </c>
       <c r="I5">
-        <v>34.2</v>
+        <v>41.2</v>
       </c>
       <c r="J5">
-        <v>34.5</v>
+        <v>41.4</v>
       </c>
       <c r="K5">
-        <v>35.3</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,34 +620,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>33.90000000000001</v>
+        <v>19.9</v>
       </c>
       <c r="C6">
-        <v>33.4</v>
+        <v>42.8</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>42.2</v>
       </c>
       <c r="E6">
-        <v>34.1</v>
+        <v>43.3</v>
       </c>
       <c r="F6">
-        <v>34.2</v>
+        <v>41.7</v>
       </c>
       <c r="G6">
-        <v>33.6</v>
+        <v>41.8</v>
       </c>
       <c r="H6">
-        <v>33.90000000000001</v>
+        <v>42.4</v>
       </c>
       <c r="I6">
-        <v>34.7</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>33.6</v>
+        <v>42.3</v>
       </c>
       <c r="K6">
-        <v>31.8</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +655,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>31.4</v>
+        <v>14.2</v>
       </c>
       <c r="C7">
-        <v>31.1</v>
+        <v>16.1</v>
       </c>
       <c r="D7">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="E7">
-        <v>30.5</v>
+        <v>16.1</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>16.5</v>
       </c>
       <c r="G7">
-        <v>30.8</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>30.5</v>
+        <v>15.9</v>
       </c>
       <c r="I7">
-        <v>31.1</v>
+        <v>16.9</v>
       </c>
       <c r="J7">
-        <v>32</v>
+        <v>16.3</v>
       </c>
       <c r="K7">
-        <v>32.9</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,34 +690,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1944</v>
+        <v>3935</v>
       </c>
       <c r="C8">
-        <v>1980</v>
+        <v>2090</v>
       </c>
       <c r="D8">
-        <v>1915</v>
+        <v>2185</v>
       </c>
       <c r="E8">
-        <v>1970</v>
+        <v>2029</v>
       </c>
       <c r="F8">
-        <v>1914</v>
+        <v>2087</v>
       </c>
       <c r="G8">
-        <v>2012</v>
+        <v>2179</v>
       </c>
       <c r="H8">
-        <v>2060</v>
+        <v>2175</v>
       </c>
       <c r="I8">
-        <v>1879</v>
+        <v>2085</v>
       </c>
       <c r="J8">
-        <v>1882</v>
+        <v>2125</v>
       </c>
       <c r="K8">
-        <v>1918</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,34 +725,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1897</v>
+        <v>1189</v>
       </c>
       <c r="C9">
-        <v>1862</v>
+        <v>2174</v>
       </c>
       <c r="D9">
-        <v>1896</v>
+        <v>2192</v>
       </c>
       <c r="E9">
-        <v>1899</v>
+        <v>2160</v>
       </c>
       <c r="F9">
-        <v>1885</v>
+        <v>2078</v>
       </c>
       <c r="G9">
-        <v>1901</v>
+        <v>2211</v>
       </c>
       <c r="H9">
-        <v>1956</v>
+        <v>2209</v>
       </c>
       <c r="I9">
-        <v>1908</v>
+        <v>2127</v>
       </c>
       <c r="J9">
-        <v>1834</v>
+        <v>2174</v>
       </c>
       <c r="K9">
-        <v>1730</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1759</v>
+        <v>850</v>
       </c>
       <c r="C10">
-        <v>1736</v>
+        <v>817</v>
       </c>
       <c r="D10">
-        <v>1760</v>
+        <v>822</v>
       </c>
       <c r="E10">
-        <v>1699</v>
+        <v>804</v>
       </c>
       <c r="F10">
-        <v>1710</v>
+        <v>821</v>
       </c>
       <c r="G10">
-        <v>1740</v>
+        <v>899</v>
       </c>
       <c r="H10">
-        <v>1760</v>
+        <v>828</v>
       </c>
       <c r="I10">
-        <v>1706</v>
+        <v>854</v>
       </c>
       <c r="J10">
-        <v>1746</v>
+        <v>835</v>
       </c>
       <c r="K10">
-        <v>1788</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,34 +795,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.213</v>
+        <v>0.43</v>
       </c>
       <c r="C11">
-        <v>0.208</v>
+        <v>0.181</v>
       </c>
       <c r="D11">
-        <v>0.202</v>
+        <v>0.207</v>
       </c>
       <c r="E11">
-        <v>0.219</v>
+        <v>0.182</v>
       </c>
       <c r="F11">
-        <v>0.209</v>
+        <v>0.195</v>
       </c>
       <c r="G11">
-        <v>0.209</v>
+        <v>0.182</v>
       </c>
       <c r="H11">
-        <v>0.208</v>
+        <v>0.182</v>
       </c>
       <c r="I11">
-        <v>0.198</v>
+        <v>0.189</v>
       </c>
       <c r="J11">
-        <v>0.219</v>
+        <v>0.185</v>
       </c>
       <c r="K11">
-        <v>0.218</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,34 +830,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3848457</v>
+        <v>5426655</v>
       </c>
       <c r="C12">
-        <v>3924421</v>
+        <v>3378712</v>
       </c>
       <c r="D12">
-        <v>3872747</v>
+        <v>3592711</v>
       </c>
       <c r="E12">
-        <v>3886047</v>
+        <v>3258790</v>
       </c>
       <c r="F12">
-        <v>3807132</v>
+        <v>3352258</v>
       </c>
       <c r="G12">
-        <v>3941434</v>
+        <v>3571796</v>
       </c>
       <c r="H12">
-        <v>3998480</v>
+        <v>3538434</v>
       </c>
       <c r="I12">
-        <v>3760092</v>
+        <v>3424629</v>
       </c>
       <c r="J12">
-        <v>3780452</v>
+        <v>3475082</v>
       </c>
       <c r="K12">
-        <v>3827636</v>
+        <v>3610202</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,34 +865,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.629</v>
+        <v>0.555</v>
       </c>
       <c r="C13">
-        <v>0.619</v>
+        <v>0.524</v>
       </c>
       <c r="D13">
-        <v>0.622</v>
+        <v>0.519</v>
       </c>
       <c r="E13">
-        <v>0.615</v>
+        <v>0.521</v>
       </c>
       <c r="F13">
-        <v>0.632</v>
+        <v>0.54</v>
       </c>
       <c r="G13">
-        <v>0.617</v>
+        <v>0.536</v>
       </c>
       <c r="H13">
-        <v>0.621</v>
+        <v>0.525</v>
       </c>
       <c r="I13">
-        <v>0.631</v>
+        <v>0.538</v>
       </c>
       <c r="J13">
-        <v>0.635</v>
+        <v>0.531</v>
       </c>
       <c r="K13">
-        <v>0.629</v>
+        <v>0.509</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -480,34 +480,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5600</v>
+        <v>6457</v>
       </c>
       <c r="C2">
-        <v>5578</v>
+        <v>5030</v>
       </c>
       <c r="D2">
-        <v>5571</v>
+        <v>4986</v>
       </c>
       <c r="E2">
-        <v>5568</v>
+        <v>5006</v>
       </c>
       <c r="F2">
-        <v>5509</v>
+        <v>5023</v>
       </c>
       <c r="G2">
-        <v>5653</v>
+        <v>5090</v>
       </c>
       <c r="H2">
-        <v>5776</v>
+        <v>4989</v>
       </c>
       <c r="I2">
-        <v>5493</v>
+        <v>5097</v>
       </c>
       <c r="J2">
-        <v>5462</v>
+        <v>5121</v>
       </c>
       <c r="K2">
-        <v>5436</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,34 +515,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K3">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,34 +550,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,34 +585,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>34.7</v>
+        <v>62.1</v>
       </c>
       <c r="C5">
-        <v>35.5</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>34.4</v>
+        <v>40.40000000000001</v>
       </c>
       <c r="E5">
-        <v>35.4</v>
+        <v>40.9</v>
       </c>
       <c r="F5">
-        <v>34.7</v>
+        <v>41.4</v>
       </c>
       <c r="G5">
-        <v>35.6</v>
+        <v>40.9</v>
       </c>
       <c r="H5">
-        <v>35.7</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>34.2</v>
+        <v>42.3</v>
       </c>
       <c r="J5">
-        <v>34.5</v>
+        <v>40.8</v>
       </c>
       <c r="K5">
-        <v>35.3</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,34 +620,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>33.90000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="C6">
-        <v>33.4</v>
+        <v>41.5</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>43.4</v>
       </c>
       <c r="E6">
-        <v>34.1</v>
+        <v>42.7</v>
       </c>
       <c r="F6">
-        <v>34.2</v>
+        <v>41.5</v>
       </c>
       <c r="G6">
-        <v>33.6</v>
+        <v>42.8</v>
       </c>
       <c r="H6">
-        <v>33.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="I6">
-        <v>34.7</v>
+        <v>42.4</v>
       </c>
       <c r="J6">
-        <v>33.6</v>
+        <v>42.6</v>
       </c>
       <c r="K6">
-        <v>31.8</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +655,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>31.4</v>
+        <v>15.4</v>
       </c>
       <c r="C7">
-        <v>31.1</v>
+        <v>16.5</v>
       </c>
       <c r="D7">
-        <v>31.6</v>
+        <v>16.2</v>
       </c>
       <c r="E7">
-        <v>30.5</v>
+        <v>16.3</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>17.2</v>
       </c>
       <c r="G7">
-        <v>30.8</v>
+        <v>16.4</v>
       </c>
       <c r="H7">
-        <v>30.5</v>
+        <v>17.1</v>
       </c>
       <c r="I7">
-        <v>31.1</v>
+        <v>15.3</v>
       </c>
       <c r="J7">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="K7">
-        <v>32.9</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,34 +690,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1944</v>
+        <v>4011</v>
       </c>
       <c r="C8">
-        <v>1980</v>
+        <v>2115</v>
       </c>
       <c r="D8">
-        <v>1915</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>1970</v>
+        <v>2048</v>
       </c>
       <c r="F8">
-        <v>1914</v>
+        <v>2078</v>
       </c>
       <c r="G8">
-        <v>2012</v>
+        <v>2080</v>
       </c>
       <c r="H8">
-        <v>2060</v>
+        <v>2043</v>
       </c>
       <c r="I8">
-        <v>1879</v>
+        <v>2156</v>
       </c>
       <c r="J8">
-        <v>1882</v>
+        <v>2090</v>
       </c>
       <c r="K8">
-        <v>1918</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,34 +725,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1897</v>
+        <v>1453</v>
       </c>
       <c r="C9">
-        <v>1862</v>
+        <v>2085</v>
       </c>
       <c r="D9">
-        <v>1896</v>
+        <v>2162</v>
       </c>
       <c r="E9">
-        <v>1899</v>
+        <v>2140</v>
       </c>
       <c r="F9">
-        <v>1885</v>
+        <v>2083</v>
       </c>
       <c r="G9">
-        <v>1901</v>
+        <v>2176</v>
       </c>
       <c r="H9">
-        <v>1956</v>
+        <v>2092</v>
       </c>
       <c r="I9">
-        <v>1908</v>
+        <v>2161</v>
       </c>
       <c r="J9">
-        <v>1834</v>
+        <v>2184</v>
       </c>
       <c r="K9">
-        <v>1730</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1759</v>
+        <v>993</v>
       </c>
       <c r="C10">
-        <v>1736</v>
+        <v>830</v>
       </c>
       <c r="D10">
-        <v>1760</v>
+        <v>809</v>
       </c>
       <c r="E10">
-        <v>1699</v>
+        <v>818</v>
       </c>
       <c r="F10">
-        <v>1710</v>
+        <v>862</v>
       </c>
       <c r="G10">
-        <v>1740</v>
+        <v>834</v>
       </c>
       <c r="H10">
-        <v>1760</v>
+        <v>854</v>
       </c>
       <c r="I10">
-        <v>1706</v>
+        <v>780</v>
       </c>
       <c r="J10">
-        <v>1746</v>
+        <v>847</v>
       </c>
       <c r="K10">
-        <v>1788</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,34 +795,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.213</v>
+        <v>0.484</v>
       </c>
       <c r="C11">
-        <v>0.208</v>
+        <v>0.19</v>
       </c>
       <c r="D11">
-        <v>0.202</v>
+        <v>0.179</v>
       </c>
       <c r="E11">
-        <v>0.219</v>
+        <v>0.18</v>
       </c>
       <c r="F11">
-        <v>0.209</v>
+        <v>0.186</v>
       </c>
       <c r="G11">
-        <v>0.209</v>
+        <v>0.188</v>
       </c>
       <c r="H11">
-        <v>0.208</v>
+        <v>0.19</v>
       </c>
       <c r="I11">
-        <v>0.198</v>
+        <v>0.183</v>
       </c>
       <c r="J11">
-        <v>0.219</v>
+        <v>0.18</v>
       </c>
       <c r="K11">
-        <v>0.218</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,34 +830,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3848457</v>
+        <v>6262862</v>
       </c>
       <c r="C12">
-        <v>3924421</v>
+        <v>3443134</v>
       </c>
       <c r="D12">
-        <v>3872747</v>
+        <v>3249837</v>
       </c>
       <c r="E12">
-        <v>3886047</v>
+        <v>3324711</v>
       </c>
       <c r="F12">
-        <v>3807132</v>
+        <v>3401856</v>
       </c>
       <c r="G12">
-        <v>3941434</v>
+        <v>3439189</v>
       </c>
       <c r="H12">
-        <v>3998480</v>
+        <v>3318745</v>
       </c>
       <c r="I12">
-        <v>3760092</v>
+        <v>3478921</v>
       </c>
       <c r="J12">
-        <v>3780452</v>
+        <v>3441643</v>
       </c>
       <c r="K12">
-        <v>3827636</v>
+        <v>3439824</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,34 +865,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.629</v>
+        <v>0.554</v>
       </c>
       <c r="C13">
-        <v>0.619</v>
+        <v>0.525</v>
       </c>
       <c r="D13">
-        <v>0.622</v>
+        <v>0.523</v>
       </c>
       <c r="E13">
-        <v>0.615</v>
+        <v>0.529</v>
       </c>
       <c r="F13">
-        <v>0.632</v>
+        <v>0.52</v>
       </c>
       <c r="G13">
-        <v>0.617</v>
+        <v>0.543</v>
       </c>
       <c r="H13">
-        <v>0.621</v>
+        <v>0.52</v>
       </c>
       <c r="I13">
-        <v>0.631</v>
+        <v>0.529</v>
       </c>
       <c r="J13">
-        <v>0.635</v>
+        <v>0.525</v>
       </c>
       <c r="K13">
-        <v>0.629</v>
+        <v>0.536</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -480,34 +480,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6457</v>
+        <v>6412</v>
       </c>
       <c r="C2">
-        <v>5030</v>
+        <v>5106</v>
       </c>
       <c r="D2">
-        <v>4986</v>
+        <v>5020</v>
       </c>
       <c r="E2">
-        <v>5006</v>
+        <v>5064</v>
       </c>
       <c r="F2">
-        <v>5023</v>
+        <v>4926</v>
       </c>
       <c r="G2">
-        <v>5090</v>
+        <v>5105</v>
       </c>
       <c r="H2">
-        <v>4989</v>
+        <v>5088</v>
       </c>
       <c r="I2">
-        <v>5097</v>
+        <v>5185</v>
       </c>
       <c r="J2">
-        <v>5121</v>
+        <v>5077</v>
       </c>
       <c r="K2">
-        <v>5134</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +518,31 @@
         <v>80</v>
       </c>
       <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>79</v>
+      </c>
+      <c r="E3">
+        <v>78</v>
+      </c>
+      <c r="F3">
         <v>80</v>
       </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>79</v>
-      </c>
-      <c r="G3">
-        <v>78</v>
       </c>
       <c r="H3">
         <v>79</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J3">
+        <v>78</v>
+      </c>
+      <c r="K3">
         <v>79</v>
-      </c>
-      <c r="K3">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +553,31 @@
         <v>20</v>
       </c>
       <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>21</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
       </c>
       <c r="H4">
         <v>21</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4">
+        <v>22</v>
+      </c>
+      <c r="K4">
         <v>21</v>
-      </c>
-      <c r="K4">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,34 +585,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>62.1</v>
+        <v>62.5</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="D5">
-        <v>40.40000000000001</v>
+        <v>41.5</v>
       </c>
       <c r="E5">
-        <v>40.9</v>
+        <v>40.2</v>
       </c>
       <c r="F5">
-        <v>41.4</v>
+        <v>41.9</v>
       </c>
       <c r="G5">
-        <v>40.9</v>
+        <v>41.3</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="I5">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="J5">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="K5">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,34 +620,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="C6">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="D6">
-        <v>43.4</v>
+        <v>41.6</v>
       </c>
       <c r="E6">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="F6">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="G6">
-        <v>42.8</v>
+        <v>42.3</v>
       </c>
       <c r="H6">
-        <v>41.9</v>
+        <v>43.2</v>
       </c>
       <c r="I6">
-        <v>42.4</v>
+        <v>43.3</v>
       </c>
       <c r="J6">
-        <v>42.6</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>42.5</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +655,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C7">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="D7">
-        <v>16.2</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>16.3</v>
+        <v>16.9</v>
       </c>
       <c r="F7">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
       <c r="G7">
         <v>16.4</v>
       </c>
       <c r="H7">
-        <v>17.1</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="J7">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="K7">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,34 +690,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4011</v>
+        <v>4007</v>
       </c>
       <c r="C8">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="D8">
-        <v>2015</v>
+        <v>2083</v>
       </c>
       <c r="E8">
-        <v>2048</v>
+        <v>2035</v>
       </c>
       <c r="F8">
-        <v>2078</v>
+        <v>2062</v>
       </c>
       <c r="G8">
-        <v>2080</v>
+        <v>2110</v>
       </c>
       <c r="H8">
-        <v>2043</v>
+        <v>2075</v>
       </c>
       <c r="I8">
-        <v>2156</v>
+        <v>2136</v>
       </c>
       <c r="J8">
-        <v>2090</v>
+        <v>2058</v>
       </c>
       <c r="K8">
-        <v>2066</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,34 +725,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="C9">
-        <v>2085</v>
+        <v>2130</v>
       </c>
       <c r="D9">
-        <v>2162</v>
+        <v>2086</v>
       </c>
       <c r="E9">
-        <v>2140</v>
+        <v>2174</v>
       </c>
       <c r="F9">
-        <v>2083</v>
+        <v>2033</v>
       </c>
       <c r="G9">
-        <v>2176</v>
+        <v>2157</v>
       </c>
       <c r="H9">
-        <v>2092</v>
+        <v>2198</v>
       </c>
       <c r="I9">
-        <v>2161</v>
+        <v>2245</v>
       </c>
       <c r="J9">
-        <v>2184</v>
+        <v>2133</v>
       </c>
       <c r="K9">
-        <v>2183</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="C10">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="D10">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="E10">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="F10">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="G10">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="H10">
-        <v>854</v>
+        <v>815</v>
       </c>
       <c r="I10">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="J10">
-        <v>847</v>
+        <v>886</v>
       </c>
       <c r="K10">
-        <v>885</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,28 +795,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.484</v>
+        <v>0.468</v>
       </c>
       <c r="C11">
-        <v>0.19</v>
+        <v>0.202</v>
       </c>
       <c r="D11">
-        <v>0.179</v>
+        <v>0.194</v>
       </c>
       <c r="E11">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="F11">
-        <v>0.186</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.188</v>
+        <v>0.184</v>
       </c>
       <c r="H11">
-        <v>0.19</v>
+        <v>0.174</v>
       </c>
       <c r="I11">
-        <v>0.183</v>
+        <v>0.185</v>
       </c>
       <c r="J11">
         <v>0.18</v>
@@ -830,34 +830,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6262862</v>
+        <v>6077104</v>
       </c>
       <c r="C12">
-        <v>3443134</v>
+        <v>3550724</v>
       </c>
       <c r="D12">
-        <v>3249837</v>
+        <v>3440058</v>
       </c>
       <c r="E12">
-        <v>3324711</v>
+        <v>3330837</v>
       </c>
       <c r="F12">
-        <v>3401856</v>
+        <v>3350195</v>
       </c>
       <c r="G12">
-        <v>3439189</v>
+        <v>3410110</v>
       </c>
       <c r="H12">
-        <v>3318745</v>
+        <v>3361105</v>
       </c>
       <c r="I12">
-        <v>3478921</v>
+        <v>3524407</v>
       </c>
       <c r="J12">
-        <v>3441643</v>
+        <v>3415241</v>
       </c>
       <c r="K12">
-        <v>3439824</v>
+        <v>3404795</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,34 +865,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.554</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C13">
         <v>0.525</v>
       </c>
       <c r="D13">
-        <v>0.523</v>
+        <v>0.521</v>
       </c>
       <c r="E13">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="F13">
         <v>0.52</v>
       </c>
       <c r="G13">
-        <v>0.543</v>
+        <v>0.52</v>
       </c>
       <c r="H13">
-        <v>0.52</v>
+        <v>0.523</v>
       </c>
       <c r="I13">
-        <v>0.529</v>
+        <v>0.544</v>
       </c>
       <c r="J13">
-        <v>0.525</v>
+        <v>0.53</v>
       </c>
       <c r="K13">
-        <v>0.536</v>
+        <v>0.518</v>
       </c>
     </row>
   </sheetData>
